--- a/연구일지_양동혁.xlsx
+++ b/연구일지_양동혁.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ydh\Desktop\asd\memory_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41D3D43-C145-4F41-8FA6-AF5AB0B0E269}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8665D4-4E63-49D7-925F-E9063791AB6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{997F830F-3055-43F0-B7CE-5FE9DF1BB4C5}"/>
   </bookViews>
@@ -47,11 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. 이번주 연구사항
-3. 다음주 연구사항
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 이번주 연구사항
 4. 다음주 연구사항
 </t>
   </si>
@@ -78,7 +73,14 @@
     <t>1. 이번주 연구사항
 가나다 
 2. 다음주 연구사항
-킹콩</t>
+다시작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이번주 연구사항
+깃허브
+3. 다음주 연구사항
+준비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +643,7 @@
   <dimension ref="C1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -654,7 +656,7 @@
     <row r="2" spans="3:5" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
@@ -675,7 +677,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -691,7 +693,7 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -707,7 +709,7 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -723,7 +725,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -739,7 +741,7 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -755,7 +757,7 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -771,7 +773,7 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -783,15 +785,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C17:D18"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C11:D12"/>
     <mergeCell ref="C13:D14"/>
     <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/연구일지_양동혁.xlsx
+++ b/연구일지_양동혁.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ydh\Desktop\asd\memory_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8665D4-4E63-49D7-925F-E9063791AB6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD6A55B-E809-4106-97DB-34FC087139D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{997F830F-3055-43F0-B7CE-5FE9DF1BB4C5}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="25410" windowHeight="11385" xr2:uid="{997F830F-3055-43F0-B7CE-5FE9DF1BB4C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>항목(내용)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,6 +81,11 @@
 깃허브
 3. 다음주 연구사항
 준비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수님 지시사항
+asdasdasdas</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -643,7 +648,7 @@
   <dimension ref="C1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -684,7 +689,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="66" x14ac:dyDescent="0.3">
@@ -785,15 +790,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C15:D16"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C9:D10"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C15:D16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/연구일지_양동혁.xlsx
+++ b/연구일지_양동혁.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ydh\Desktop\asd\memory_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD6A55B-E809-4106-97DB-34FC087139D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704EC884-0B68-4E37-ABB4-14DF104D1D18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="25410" windowHeight="11385" xr2:uid="{997F830F-3055-43F0-B7CE-5FE9DF1BB4C5}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="25410" windowHeight="11385" xr2:uid="{997F830F-3055-43F0-B7CE-5FE9DF1BB4C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>항목(내용)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -86,6 +86,11 @@
   <si>
     <t>교수님 지시사항
 asdasdasdas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수님 지시사항
+심웅빈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +653,7 @@
   <dimension ref="C1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -705,7 +710,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="66" x14ac:dyDescent="0.3">
@@ -790,15 +795,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C17:D18"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C11:D12"/>
     <mergeCell ref="C13:D14"/>
     <mergeCell ref="C15:D16"/>
     <mergeCell ref="C7:D8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C17:D18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/연구일지_양동혁.xlsx
+++ b/연구일지_양동혁.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ydh\Desktop\asd\memory_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704EC884-0B68-4E37-ABB4-14DF104D1D18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61560860-5D2F-4DCB-90A5-DD72DCB8CEBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="25410" windowHeight="11385" xr2:uid="{997F830F-3055-43F0-B7CE-5FE9DF1BB4C5}"/>
+    <workbookView xWindow="3285" yWindow="3285" windowWidth="25410" windowHeight="11385" xr2:uid="{997F830F-3055-43F0-B7CE-5FE9DF1BB4C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,13 +71,6 @@
   </si>
   <si>
     <t>1. 이번주 연구사항
-가나다 
-2. 다음주 연구사항
-다시작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 이번주 연구사항
 깃허브
 3. 다음주 연구사항
 준비</t>
@@ -91,6 +84,13 @@
   <si>
     <t>교수님 지시사항
 심웅빈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이번주 연구사항
+가나다 
+2. 다음주 연구사항
+다시작성 설마또?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -308,6 +308,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,15 +327,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,7 +653,7 @@
   <dimension ref="C1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -665,11 +665,11 @@
     <row r="1" spans="3:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:5" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="5" spans="3:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -682,113 +682,113 @@
       </c>
     </row>
     <row r="7" spans="3:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>43324</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="C9" s="7">
+        <v>43331</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="3" t="s">
+    <row r="10" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="C9" s="4">
-        <v>43331</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="11" spans="3:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>43338</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <v>43345</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <v>43352</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="C17" s="4">
+      <c r="C17" s="7">
         <v>43359</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="C19" s="4">
+      <c r="C19" s="7">
         <v>43366</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="3" t="s">
         <v>2</v>
       </c>

--- a/연구일지_양동혁.xlsx
+++ b/연구일지_양동혁.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ydh\Desktop\asd\memory_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61560860-5D2F-4DCB-90A5-DD72DCB8CEBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C683E12-8F98-4080-8088-BF20CF0023DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="3285" windowWidth="25410" windowHeight="11385" xr2:uid="{997F830F-3055-43F0-B7CE-5FE9DF1BB4C5}"/>
+    <workbookView xWindow="7335" yWindow="2340" windowWidth="25410" windowHeight="11385" xr2:uid="{997F830F-3055-43F0-B7CE-5FE9DF1BB4C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>1. 이번주 연구사항
 가나다 
 2. 다음주 연구사항
-다시작성 설마또?</t>
+다시작성 설마또? asd asd as das d</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/연구일지_양동혁.xlsx
+++ b/연구일지_양동혁.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ydh\Desktop\asd\memory_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C683E12-8F98-4080-8088-BF20CF0023DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B339FB4-76A4-4EE0-9E84-573A442ABD92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="2340" windowWidth="25410" windowHeight="11385" xr2:uid="{997F830F-3055-43F0-B7CE-5FE9DF1BB4C5}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25410" windowHeight="11385" xr2:uid="{997F830F-3055-43F0-B7CE-5FE9DF1BB4C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
   </si>
   <si>
     <t>1. 이번주 연구사항
-가나다 
+가나다  dasdas as   ada sd 
 2. 다음주 연구사항
 다시작성 설마또? asd asd as das d</t>
     <phoneticPr fontId="2" type="noConversion"/>

--- a/연구일지_양동혁.xlsx
+++ b/연구일지_양동혁.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ydh\Desktop\asd\memory_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B339FB4-76A4-4EE0-9E84-573A442ABD92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642A3CA5-2987-4543-A30E-729750377120}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="25410" windowHeight="11385" xr2:uid="{997F830F-3055-43F0-B7CE-5FE9DF1BB4C5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>항목(내용)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,27 +70,16 @@
 </t>
   </si>
   <si>
-    <t>1. 이번주 연구사항
-깃허브
+    <t xml:space="preserve">1. 이번주 연구사항
 3. 다음주 연구사항
-준비</t>
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>교수님 지시사항
-asdasdasdas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교수님 지시사항
-심웅빈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 이번주 연구사항
-가나다  dasdas as   ada sd 
+    <t xml:space="preserve">1. 이번주 연구사항
+asdsd 
 2. 다음주 연구사항
-다시작성 설마또? asd asd as das d</t>
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -687,14 +676,14 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="66" x14ac:dyDescent="0.3">
@@ -710,7 +699,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="66" x14ac:dyDescent="0.3">

--- a/연구일지_양동혁.xlsx
+++ b/연구일지_양동혁.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ydh\Desktop\asd\memory_Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ydh\Desktop\새 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642A3CA5-2987-4543-A30E-729750377120}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C572C082-8389-47F8-B807-A0FBCE84405F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="25410" windowHeight="11385" xr2:uid="{997F830F-3055-43F0-B7CE-5FE9DF1BB4C5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>항목(내용)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -80,6 +80,11 @@
 asdsd 
 2. 다음주 연구사항
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수님 지시사항
+하이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +647,7 @@
   <dimension ref="C1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -683,7 +688,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="66" x14ac:dyDescent="0.3">

--- a/연구일지_양동혁.xlsx
+++ b/연구일지_양동혁.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ydh\Desktop\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ydh\Desktop\asd\memory_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C572C082-8389-47F8-B807-A0FBCE84405F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47BA999-6DD4-40B1-A1C5-51EA43BC7AE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="25410" windowHeight="11385" xr2:uid="{997F830F-3055-43F0-B7CE-5FE9DF1BB4C5}"/>
   </bookViews>
@@ -76,15 +76,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 이번주 연구사항
+    <t>교수님 지시사항
+하이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이번주 연구사항
 asdsd 
 2. 다음주 연구사항
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교수님 지시사항
-하이</t>
+핼루룰룰루</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +647,7 @@
   <dimension ref="C1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,14 +681,14 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="66" x14ac:dyDescent="0.3">

--- a/연구일지_양동혁.xlsx
+++ b/연구일지_양동혁.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ydh\Desktop\asd\memory_Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ydh\Desktop\새 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47BA999-6DD4-40B1-A1C5-51EA43BC7AE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D667AE-786F-4D97-ABBC-BC90FBD6F49C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="25410" windowHeight="11385" xr2:uid="{997F830F-3055-43F0-B7CE-5FE9DF1BB4C5}"/>
   </bookViews>
@@ -70,21 +70,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. 이번주 연구사항
-3. 다음주 연구사항
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교수님 지시사항
-하이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 이번주 연구사항
 asdsd 
 2. 다음주 연구사항
 핼루룰룰루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 이번주 연구사항
+방가방가
+3. 다음주 연구사항
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수님 지시사항
+하이 dasdasd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +648,7 @@
   <dimension ref="C1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,14 +682,14 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="66" x14ac:dyDescent="0.3">
@@ -697,7 +698,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
